--- a/data/trans_orig/P39C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F30ECAD2-CFAD-4196-96C6-596AF531C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2810BB87-070C-4D96-BDF8-E5DD0FA9D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{385CD9D8-FA03-46AA-A060-C2C1E808B55E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0965FC0C-C280-4803-9F42-462766B79CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="361">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2015 (Tasa respuesta: 81,21%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>10,37%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -108,967 +108,973 @@
     <t>17,33%</t>
   </si>
   <si>
-    <t>23,59%</t>
+    <t>23,84%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>16,78%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>22,61%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>18,06%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
     <t>29,76%</t>
   </si>
   <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
   </si>
   <si>
     <t>31,97%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
   </si>
   <si>
     <t>16,96%</t>
@@ -1077,52 +1083,43 @@
     <t>15,48%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>17,05%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>21,77%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
+    <t>19,17%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA65624C-14AD-4F68-B575-AD7BED314425}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EC1934-A070-4654-8292-07C2798539FF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1847,13 +1844,13 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>155</v>
@@ -1862,13 +1859,13 @@
         <v>153068</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
@@ -1877,13 +1874,13 @@
         <v>238533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>362</v>
@@ -1892,13 +1889,13 @@
         <v>391601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1910,13 @@
         <v>644210</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>806</v>
@@ -1928,13 +1925,13 @@
         <v>904370</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1460</v>
@@ -1943,18 +1940,18 @@
         <v>1548580</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1966,13 +1963,13 @@
         <v>190403</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>162</v>
@@ -1981,13 +1978,13 @@
         <v>165341</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>343</v>
@@ -1996,13 +1993,13 @@
         <v>355744</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,13 +2014,13 @@
         <v>461683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>464</v>
@@ -2032,13 +2029,13 @@
         <v>480644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>906</v>
@@ -2047,13 +2044,13 @@
         <v>942327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2065,13 @@
         <v>469870</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H12" s="7">
         <v>468</v>
@@ -2083,13 +2080,13 @@
         <v>493343</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>911</v>
@@ -2098,13 +2095,13 @@
         <v>963213</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2116,13 @@
         <v>202220</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -2134,13 +2131,13 @@
         <v>192064</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>366</v>
@@ -2149,19 +2146,19 @@
         <v>394284</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>220</v>
@@ -2170,13 +2167,13 @@
         <v>234314</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>294</v>
@@ -2185,13 +2182,13 @@
         <v>314555</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>514</v>
@@ -2200,13 +2197,13 @@
         <v>548869</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2218,13 @@
         <v>1558490</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1568</v>
@@ -2236,13 +2233,13 @@
         <v>1645947</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3040</v>
@@ -2251,18 +2248,18 @@
         <v>3204437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2274,13 +2271,13 @@
         <v>54052</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -2289,13 +2286,13 @@
         <v>37267</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -2304,13 +2301,13 @@
         <v>91318</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2322,13 @@
         <v>130959</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -2340,13 +2337,13 @@
         <v>137193</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>253</v>
@@ -2355,13 +2352,13 @@
         <v>268152</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2373,13 @@
         <v>109474</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>130</v>
@@ -2391,13 +2388,13 @@
         <v>136786</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>233</v>
@@ -2406,13 +2403,13 @@
         <v>246260</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2424,13 @@
         <v>51014</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -2442,13 +2439,13 @@
         <v>59061</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -2457,19 +2454,19 @@
         <v>110075</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>71</v>
@@ -2478,13 +2475,13 @@
         <v>78040</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -2493,13 +2490,13 @@
         <v>75992</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>143</v>
@@ -2508,13 +2505,13 @@
         <v>154032</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2526,13 @@
         <v>423540</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>426</v>
@@ -2544,13 +2541,13 @@
         <v>446299</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>813</v>
@@ -2559,13 +2556,13 @@
         <v>869838</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2579,13 @@
         <v>311262</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>243</v>
@@ -2597,13 +2594,13 @@
         <v>251099</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>538</v>
@@ -2612,13 +2609,13 @@
         <v>562362</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2630,13 @@
         <v>723842</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>740</v>
@@ -2648,13 +2645,13 @@
         <v>776809</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1430</v>
@@ -2663,13 +2660,13 @@
         <v>1500651</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,28 +2681,28 @@
         <v>763550</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>851</v>
       </c>
       <c r="I24" s="7">
-        <v>911602</v>
+        <v>911603</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>1587</v>
@@ -2714,13 +2711,13 @@
         <v>1675152</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2732,13 @@
         <v>362164</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>393</v>
@@ -2750,13 +2747,13 @@
         <v>428025</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>739</v>
@@ -2765,19 +2762,19 @@
         <v>790189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>446</v>
@@ -2786,13 +2783,13 @@
         <v>465422</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>573</v>
@@ -2801,13 +2798,13 @@
         <v>629080</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>1019</v>
@@ -2816,13 +2813,13 @@
         <v>1094502</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,28 +2834,28 @@
         <v>2626240</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>2800</v>
       </c>
       <c r="I27" s="7">
-        <v>2996615</v>
+        <v>2996616</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>5313</v>
@@ -2867,18 +2864,18 @@
         <v>5622856</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +2894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29589CBF-240F-4EBF-9A89-52EA93E19D42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A526DA38-7504-48AA-8418-9A4DEDDF882C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2914,7 +2911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3021,13 +3018,13 @@
         <v>33007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -3036,13 +3033,13 @@
         <v>32343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>88</v>
@@ -3051,13 +3048,13 @@
         <v>65351</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3069,13 @@
         <v>95393</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>232</v>
@@ -3087,13 +3084,13 @@
         <v>141024</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -3102,13 +3099,13 @@
         <v>236417</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3120,13 @@
         <v>116729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>386</v>
@@ -3138,13 +3135,13 @@
         <v>222027</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>539</v>
@@ -3153,13 +3150,13 @@
         <v>338756</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3171,13 @@
         <v>107322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>287</v>
@@ -3189,13 +3186,13 @@
         <v>158200</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>429</v>
@@ -3204,19 +3201,19 @@
         <v>265522</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>171</v>
@@ -3225,13 +3222,13 @@
         <v>123346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>375</v>
@@ -3240,13 +3237,13 @@
         <v>209006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>546</v>
@@ -3255,13 +3252,13 @@
         <v>332353</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3273,13 @@
         <v>475797</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1331</v>
@@ -3291,13 +3288,13 @@
         <v>762600</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1948</v>
@@ -3306,18 +3303,18 @@
         <v>1238398</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3329,13 +3326,13 @@
         <v>155144</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -3344,13 +3341,13 @@
         <v>157997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>345</v>
@@ -3359,13 +3356,13 @@
         <v>313140</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3377,13 @@
         <v>440309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>648</v>
@@ -3395,13 +3392,13 @@
         <v>467556</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>1066</v>
@@ -3434,10 +3431,10 @@
         <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>748</v>
@@ -3446,13 +3443,13 @@
         <v>626361</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>1250</v>
@@ -3461,13 +3458,13 @@
         <v>1111629</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3479,13 @@
         <v>248692</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>398</v>
@@ -3497,13 +3494,13 @@
         <v>252376</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>675</v>
@@ -3512,19 +3509,19 @@
         <v>501068</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>299</v>
@@ -3533,13 +3530,13 @@
         <v>270955</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>552</v>
@@ -3548,10 +3545,10 @@
         <v>359119</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>275</v>
@@ -3584,13 +3581,13 @@
         <v>1600367</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>2548</v>
@@ -3599,13 +3596,13 @@
         <v>1863408</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>4187</v>
@@ -3614,18 +3611,18 @@
         <v>3463775</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3667,13 +3664,13 @@
         <v>76984</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3685,13 @@
         <v>148647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -3703,10 +3700,10 @@
         <v>148945</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>292</v>
@@ -3721,10 +3718,10 @@
         <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3736,13 @@
         <v>180442</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>172</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>291</v>
@@ -3754,10 +3751,10 @@
         <v>191514</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>299</v>
@@ -3793,10 +3790,10 @@
         <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -3805,13 +3802,13 @@
         <v>103335</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>259</v>
@@ -3820,7 +3817,7 @@
         <v>193191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>309</v>
@@ -3832,7 +3829,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>119</v>
@@ -3859,10 +3856,10 @@
         <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>322</v>
@@ -3871,13 +3868,13 @@
         <v>239989</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3889,13 @@
         <v>553222</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>914</v>
@@ -3907,13 +3904,13 @@
         <v>626491</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1499</v>
@@ -3922,13 +3919,13 @@
         <v>1179712</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3942,13 @@
         <v>222500</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>304</v>
@@ -3960,13 +3957,13 @@
         <v>232976</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>518</v>
@@ -3975,13 +3972,13 @@
         <v>455475</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>65</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3993,13 @@
         <v>684349</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>1090</v>
@@ -4011,13 +4008,13 @@
         <v>757524</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>1767</v>
@@ -4026,13 +4023,13 @@
         <v>1441873</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4044,13 @@
         <v>782440</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>1425</v>
@@ -4062,13 +4059,13 @@
         <v>1039901</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>2267</v>
@@ -4077,13 +4074,13 @@
         <v>1822341</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4095,13 @@
         <v>445869</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="H25" s="7">
         <v>844</v>
@@ -4113,10 +4110,10 @@
         <v>513911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>349</v>
@@ -4140,7 +4137,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>589</v>
@@ -4170,7 +4167,7 @@
         <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="M26" s="7">
         <v>1719</v>
@@ -4179,13 +4176,13 @@
         <v>1202416</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4197,13 @@
         <v>2629386</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>4793</v>
@@ -4215,13 +4212,13 @@
         <v>3252499</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>7634</v>
@@ -4230,18 +4227,18 @@
         <v>5881885</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2810BB87-070C-4D96-BDF8-E5DD0FA9D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C28E0B6-7E32-4ADF-BBCC-080F6C921072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0965FC0C-C280-4803-9F42-462766B79CDE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4A1C6BB-4CB8-4379-94B8-CC6DC0194757}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="361">
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2015 (Tasa respuesta: 81,21%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="358">
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2016 (Tasa respuesta: 81,21%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>10,37%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -108,834 +108,837 @@
     <t>17,33%</t>
   </si>
   <si>
-    <t>23,84%</t>
+    <t>23,74%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>27,25%</t>
   </si>
   <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>33,55%</t>
   </si>
   <si>
@@ -948,15 +951,9 @@
     <t>34,07%</t>
   </si>
   <si>
-    <t>16,24%</t>
-  </si>
-  <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
     <t>16,49%</t>
   </si>
   <si>
@@ -975,9 +972,6 @@
     <t>18,06%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
     <t>21,91%</t>
   </si>
   <si>
@@ -1066,9 +1060,6 @@
   </si>
   <si>
     <t>40,89%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
   </si>
   <si>
     <t>29,17%</t>
@@ -1531,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EC1934-A070-4654-8292-07C2798539FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E9F813-75CD-432A-BC32-1ABDBC76EB7D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1996,10 +1987,10 @@
         <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2005,13 @@
         <v>461683</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>464</v>
@@ -2029,13 +2020,13 @@
         <v>480644</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>906</v>
@@ -2044,13 +2035,13 @@
         <v>942327</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2056,13 @@
         <v>469870</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>468</v>
@@ -2080,13 +2071,13 @@
         <v>493343</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>911</v>
@@ -2095,13 +2086,13 @@
         <v>963213</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2107,13 @@
         <v>202220</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -2131,13 +2122,13 @@
         <v>192064</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>366</v>
@@ -2146,13 +2137,13 @@
         <v>394284</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2158,13 @@
         <v>234314</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>294</v>
@@ -2182,13 +2173,13 @@
         <v>314555</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>514</v>
@@ -2197,13 +2188,13 @@
         <v>548869</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,7 +2250,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2271,13 +2262,13 @@
         <v>54052</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -2286,13 +2277,13 @@
         <v>37267</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -2301,13 +2292,13 @@
         <v>91318</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2313,13 @@
         <v>130959</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -2337,13 +2328,13 @@
         <v>137193</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>253</v>
@@ -2352,13 +2343,13 @@
         <v>268152</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2364,13 @@
         <v>109474</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>130</v>
@@ -2388,13 +2379,13 @@
         <v>136786</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>233</v>
@@ -2403,13 +2394,13 @@
         <v>246260</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2415,13 @@
         <v>51014</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -2439,13 +2430,13 @@
         <v>59061</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -2454,13 +2445,13 @@
         <v>110075</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2466,13 @@
         <v>78040</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -2490,13 +2481,13 @@
         <v>75992</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>143</v>
@@ -2505,13 +2496,13 @@
         <v>154032</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2570,13 @@
         <v>311262</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>243</v>
@@ -2594,13 +2585,13 @@
         <v>251099</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>538</v>
@@ -2609,13 +2600,13 @@
         <v>562362</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2621,13 @@
         <v>723842</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>740</v>
@@ -2645,13 +2636,13 @@
         <v>776809</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1430</v>
@@ -2660,13 +2651,13 @@
         <v>1500651</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2672,13 @@
         <v>763550</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>851</v>
@@ -2696,13 +2687,13 @@
         <v>911603</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>1587</v>
@@ -2711,13 +2702,13 @@
         <v>1675152</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2723,13 @@
         <v>362164</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>393</v>
@@ -2747,13 +2738,13 @@
         <v>428025</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>739</v>
@@ -2762,13 +2753,13 @@
         <v>790189</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2774,13 @@
         <v>465422</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>573</v>
@@ -2798,13 +2789,13 @@
         <v>629080</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>1019</v>
@@ -2813,13 +2804,13 @@
         <v>1094502</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2852,7 @@
         <v>5313</v>
       </c>
       <c r="N27" s="7">
-        <v>5622856</v>
+        <v>5622855</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2875,7 +2866,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A526DA38-7504-48AA-8418-9A4DEDDF882C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBEDC0E-E558-429B-B20A-AA1D0AAD4C83}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2911,7 +2902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3018,13 +3009,13 @@
         <v>33007</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -3033,13 +3024,13 @@
         <v>32343</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>88</v>
@@ -3048,13 +3039,13 @@
         <v>65351</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3060,13 @@
         <v>95393</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>232</v>
@@ -3084,13 +3075,13 @@
         <v>141024</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -3099,13 +3090,13 @@
         <v>236417</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3111,13 @@
         <v>116729</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>386</v>
@@ -3135,13 +3126,13 @@
         <v>222027</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>539</v>
@@ -3150,13 +3141,13 @@
         <v>338756</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3162,13 @@
         <v>107322</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>287</v>
@@ -3186,13 +3177,13 @@
         <v>158200</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>429</v>
@@ -3201,13 +3192,13 @@
         <v>265522</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3213,13 @@
         <v>123346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>375</v>
@@ -3237,13 +3228,13 @@
         <v>209006</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>546</v>
@@ -3252,13 +3243,13 @@
         <v>332353</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3317,13 @@
         <v>155144</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -3341,13 +3332,13 @@
         <v>157997</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>345</v>
@@ -3356,13 +3347,13 @@
         <v>313140</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3368,13 @@
         <v>440309</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>648</v>
@@ -3392,13 +3383,13 @@
         <v>467556</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>1066</v>
@@ -3413,7 +3404,7 @@
         <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,10 +3419,10 @@
         <v>485268</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>256</v>
@@ -3458,13 +3449,13 @@
         <v>1111629</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3470,13 @@
         <v>248692</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>398</v>
@@ -3494,13 +3485,13 @@
         <v>252376</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>675</v>
@@ -3509,13 +3500,13 @@
         <v>501068</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3521,13 @@
         <v>270955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>552</v>
@@ -3545,13 +3536,13 @@
         <v>359119</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>851</v>
@@ -3560,13 +3551,13 @@
         <v>630074</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3634,13 +3625,13 @@
         <v>34349</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -3649,13 +3640,13 @@
         <v>42635</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -3664,13 +3655,13 @@
         <v>76984</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3676,13 @@
         <v>148647</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -3700,13 +3691,13 @@
         <v>148945</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>355</v>
@@ -3715,13 +3706,13 @@
         <v>297592</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,10 +3727,10 @@
         <v>180442</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>297</v>
@@ -3754,10 +3745,10 @@
         <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>478</v>
@@ -3766,13 +3757,13 @@
         <v>371956</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3778,13 @@
         <v>89856</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -3802,13 +3793,13 @@
         <v>103335</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>259</v>
@@ -3817,13 +3808,13 @@
         <v>193191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3829,13 @@
         <v>99928</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>203</v>
@@ -3853,13 +3844,13 @@
         <v>140062</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>322</v>
@@ -3868,13 +3859,13 @@
         <v>239989</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3933,13 @@
         <v>222500</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>304</v>
@@ -3957,13 +3948,13 @@
         <v>232976</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>518</v>
@@ -3972,13 +3963,13 @@
         <v>455475</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3984,13 @@
         <v>684349</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>1090</v>
@@ -4008,13 +3999,13 @@
         <v>757524</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>1767</v>
@@ -4023,13 +4014,13 @@
         <v>1441873</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4035,13 @@
         <v>782440</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>1425</v>
@@ -4059,13 +4050,13 @@
         <v>1039901</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>2267</v>
@@ -4074,13 +4065,13 @@
         <v>1822341</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4086,13 @@
         <v>445869</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H25" s="7">
         <v>844</v>
@@ -4110,13 +4101,13 @@
         <v>513911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>1363</v>
@@ -4125,13 +4116,13 @@
         <v>959780</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4137,13 @@
         <v>494229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>1130</v>
@@ -4161,13 +4152,13 @@
         <v>708187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>1719</v>
@@ -4176,13 +4167,13 @@
         <v>1202416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4229,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C28E0B6-7E32-4ADF-BBCC-080F6C921072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3C768A5-E3AF-4286-BB76-F50BF5F6839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4A1C6BB-4CB8-4379-94B8-CC6DC0194757}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9E6BBF0B-0838-4B17-B39A-5A6BB95A70CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="362">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2016 (Tasa respuesta: 81,21%)</t>
   </si>
@@ -75,1042 +75,1054 @@
     <t>10,37%</t>
   </si>
   <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>17,31%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>21,77%</t>
   </si>
   <si>
-    <t>19,17%</t>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E9F813-75CD-432A-BC32-1ABDBC76EB7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB305C2-3B27-4E47-9734-449DD85691AB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1835,13 +1847,13 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>155</v>
@@ -1850,13 +1862,13 @@
         <v>153068</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
@@ -1865,13 +1877,13 @@
         <v>238533</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>362</v>
@@ -1880,13 +1892,13 @@
         <v>391601</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1913,13 @@
         <v>644210</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>806</v>
@@ -1916,13 +1928,13 @@
         <v>904370</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1460</v>
@@ -1931,18 +1943,18 @@
         <v>1548580</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1954,13 +1966,13 @@
         <v>190403</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>162</v>
@@ -1969,13 +1981,13 @@
         <v>165341</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>343</v>
@@ -1984,10 +1996,10 @@
         <v>355744</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>69</v>
@@ -2008,10 +2020,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>464</v>
@@ -2020,13 +2032,13 @@
         <v>480644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>906</v>
@@ -2035,13 +2047,13 @@
         <v>942327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2068,13 @@
         <v>469870</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>468</v>
@@ -2071,13 +2083,13 @@
         <v>493343</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>911</v>
@@ -2086,13 +2098,13 @@
         <v>963213</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2119,13 @@
         <v>202220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -2122,13 +2134,13 @@
         <v>192064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>366</v>
@@ -2137,19 +2149,19 @@
         <v>394284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>220</v>
@@ -2158,13 +2170,13 @@
         <v>234314</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>294</v>
@@ -2173,13 +2185,13 @@
         <v>314555</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>514</v>
@@ -2188,13 +2200,13 @@
         <v>548869</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2221,13 @@
         <v>1558490</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1568</v>
@@ -2224,13 +2236,13 @@
         <v>1645947</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3040</v>
@@ -2239,18 +2251,18 @@
         <v>3204437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2262,13 +2274,13 @@
         <v>54052</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -2277,13 +2289,13 @@
         <v>37267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -2292,13 +2304,13 @@
         <v>91318</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2325,13 @@
         <v>130959</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -2328,13 +2340,13 @@
         <v>137193</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>253</v>
@@ -2343,13 +2355,13 @@
         <v>268152</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2376,13 @@
         <v>109474</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>130</v>
@@ -2379,13 +2391,13 @@
         <v>136786</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>233</v>
@@ -2394,13 +2406,13 @@
         <v>246260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,13 +2427,13 @@
         <v>51014</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -2430,13 +2442,13 @@
         <v>59061</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -2445,19 +2457,19 @@
         <v>110075</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>71</v>
@@ -2466,13 +2478,13 @@
         <v>78040</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -2481,13 +2493,13 @@
         <v>75992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>143</v>
@@ -2496,13 +2508,13 @@
         <v>154032</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2529,13 @@
         <v>423540</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>426</v>
@@ -2532,13 +2544,13 @@
         <v>446299</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>813</v>
@@ -2547,13 +2559,13 @@
         <v>869838</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2582,13 @@
         <v>311262</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>243</v>
@@ -2585,13 +2597,13 @@
         <v>251099</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>538</v>
@@ -2600,13 +2612,13 @@
         <v>562362</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2633,13 @@
         <v>723842</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
         <v>740</v>
@@ -2684,7 +2696,7 @@
         <v>851</v>
       </c>
       <c r="I24" s="7">
-        <v>911603</v>
+        <v>911602</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>170</v>
@@ -2705,10 +2717,10 @@
         <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,7 +2735,7 @@
         <v>362164</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>176</v>
@@ -2765,7 +2777,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>446</v>
@@ -2825,43 +2837,43 @@
         <v>2626240</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>2800</v>
       </c>
       <c r="I27" s="7">
-        <v>2996616</v>
+        <v>2996615</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>5313</v>
       </c>
       <c r="N27" s="7">
-        <v>5622855</v>
+        <v>5622856</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,7 +2897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBEDC0E-E558-429B-B20A-AA1D0AAD4C83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCC8F7C-451E-4240-B57B-5976ACD07BFC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3060,13 +3072,13 @@
         <v>95393</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>232</v>
@@ -3075,13 +3087,13 @@
         <v>141024</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -3090,13 +3102,13 @@
         <v>236417</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3123,13 @@
         <v>116729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>386</v>
@@ -3126,13 +3138,13 @@
         <v>222027</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>539</v>
@@ -3141,13 +3153,13 @@
         <v>338756</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3174,13 @@
         <v>107322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>287</v>
@@ -3177,7 +3189,7 @@
         <v>158200</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>225</v>
@@ -3204,7 +3216,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>171</v>
@@ -3264,13 +3276,13 @@
         <v>475797</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1331</v>
@@ -3279,13 +3291,13 @@
         <v>762600</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1948</v>
@@ -3294,18 +3306,18 @@
         <v>1238398</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3383,13 +3395,13 @@
         <v>467556</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>1066</v>
@@ -3404,7 +3416,7 @@
         <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3431,13 @@
         <v>485268</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>748</v>
@@ -3434,13 +3446,13 @@
         <v>626361</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>1250</v>
@@ -3449,13 +3461,13 @@
         <v>1111629</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3482,13 @@
         <v>248692</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>398</v>
@@ -3485,13 +3497,13 @@
         <v>252376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>675</v>
@@ -3500,19 +3512,19 @@
         <v>501068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>299</v>
@@ -3521,13 +3533,13 @@
         <v>270955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>552</v>
@@ -3536,13 +3548,13 @@
         <v>359119</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>851</v>
@@ -3551,13 +3563,13 @@
         <v>630074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3584,13 @@
         <v>1600367</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2548</v>
@@ -3587,13 +3599,13 @@
         <v>1863408</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4187</v>
@@ -3602,18 +3614,18 @@
         <v>3463775</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3625,13 +3637,13 @@
         <v>34349</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -3640,13 +3652,13 @@
         <v>42635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -3655,7 +3667,7 @@
         <v>76984</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>285</v>
@@ -3694,10 +3706,10 @@
         <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>355</v>
@@ -3706,13 +3718,13 @@
         <v>297592</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3739,13 @@
         <v>180442</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>291</v>
@@ -3742,13 +3754,13 @@
         <v>191514</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>478</v>
@@ -3757,13 +3769,13 @@
         <v>371956</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3790,13 @@
         <v>89856</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -3808,19 +3820,19 @@
         <v>193191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>119</v>
@@ -3829,13 +3841,13 @@
         <v>99928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>203</v>
@@ -3844,13 +3856,13 @@
         <v>140062</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>322</v>
@@ -3859,13 +3871,13 @@
         <v>239989</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3892,13 @@
         <v>553222</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>914</v>
@@ -3895,13 +3907,13 @@
         <v>626491</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1499</v>
@@ -3910,13 +3922,13 @@
         <v>1179712</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3945,13 @@
         <v>222500</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>304</v>
@@ -3948,13 +3960,13 @@
         <v>232976</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>518</v>
@@ -3963,13 +3975,13 @@
         <v>455475</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +4029,7 @@
         <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>334</v>
@@ -4065,13 +4077,13 @@
         <v>1822341</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4098,13 @@
         <v>445869</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>844</v>
@@ -4101,13 +4113,13 @@
         <v>513911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>1363</v>
@@ -4116,19 +4128,19 @@
         <v>959780</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>589</v>
@@ -4137,13 +4149,13 @@
         <v>494229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>1130</v>
@@ -4152,13 +4164,13 @@
         <v>708187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>1719</v>
@@ -4167,13 +4179,13 @@
         <v>1202416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4200,13 @@
         <v>2629386</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>4793</v>
@@ -4203,13 +4215,13 @@
         <v>3252499</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>7634</v>
@@ -4218,13 +4230,13 @@
         <v>5881885</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P39C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3C768A5-E3AF-4286-BB76-F50BF5F6839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD6B784-E7EA-4B58-8461-B40F19821DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9E6BBF0B-0838-4B17-B39A-5A6BB95A70CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{533FF2AD-0FE5-4048-8581-CE5486E5D719}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="360">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2016 (Tasa respuesta: 81,21%)</t>
   </si>
@@ -624,505 +624,499 @@
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>25,39%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
     <t>25,23%</t>
   </si>
   <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB305C2-3B27-4E47-9734-449DD85691AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78F648B-D603-4198-BBBB-FF32741FA615}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2301,7 +2295,7 @@
         <v>85</v>
       </c>
       <c r="N16" s="7">
-        <v>91318</v>
+        <v>91319</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -2352,7 +2346,7 @@
         <v>253</v>
       </c>
       <c r="N17" s="7">
-        <v>268152</v>
+        <v>268153</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -2454,7 +2448,7 @@
         <v>99</v>
       </c>
       <c r="N19" s="7">
-        <v>110075</v>
+        <v>110076</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>140</v>
@@ -2556,7 +2550,7 @@
         <v>813</v>
       </c>
       <c r="N21" s="7">
-        <v>869838</v>
+        <v>869839</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -2864,7 +2858,7 @@
         <v>5313</v>
       </c>
       <c r="N27" s="7">
-        <v>5622856</v>
+        <v>5622855</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -2897,7 +2891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCC8F7C-451E-4240-B57B-5976ACD07BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD64A6C-8A74-443A-ABB9-7A6B6D651419}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3018,7 +3012,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>33007</v>
+        <v>31578</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>195</v>
@@ -3033,7 +3027,7 @@
         <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>32343</v>
+        <v>29835</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>198</v>
@@ -3048,16 +3042,16 @@
         <v>88</v>
       </c>
       <c r="N4" s="7">
-        <v>65351</v>
+        <v>61414</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,46 +3063,46 @@
         <v>114</v>
       </c>
       <c r="D5" s="7">
-        <v>95393</v>
+        <v>90754</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>232</v>
       </c>
       <c r="I5" s="7">
-        <v>141024</v>
+        <v>128404</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
       </c>
       <c r="N5" s="7">
-        <v>236417</v>
+        <v>219159</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,46 +3114,46 @@
         <v>153</v>
       </c>
       <c r="D6" s="7">
-        <v>116729</v>
+        <v>110641</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>386</v>
       </c>
       <c r="I6" s="7">
-        <v>222027</v>
+        <v>200110</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>539</v>
       </c>
       <c r="N6" s="7">
-        <v>338756</v>
+        <v>310751</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,46 +3165,46 @@
         <v>142</v>
       </c>
       <c r="D7" s="7">
-        <v>107322</v>
+        <v>101138</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>287</v>
       </c>
       <c r="I7" s="7">
-        <v>158200</v>
+        <v>141802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>429</v>
       </c>
       <c r="N7" s="7">
-        <v>265522</v>
+        <v>242940</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,46 +3216,46 @@
         <v>171</v>
       </c>
       <c r="D8" s="7">
-        <v>123346</v>
+        <v>119751</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>375</v>
       </c>
       <c r="I8" s="7">
-        <v>209006</v>
+        <v>192257</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>546</v>
       </c>
       <c r="N8" s="7">
-        <v>332353</v>
+        <v>312008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3267,7 @@
         <v>617</v>
       </c>
       <c r="D9" s="7">
-        <v>475797</v>
+        <v>453863</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -3288,7 +3282,7 @@
         <v>1331</v>
       </c>
       <c r="I9" s="7">
-        <v>762600</v>
+        <v>692409</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -3303,7 +3297,7 @@
         <v>1948</v>
       </c>
       <c r="N9" s="7">
-        <v>1238398</v>
+        <v>1146272</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -3326,46 +3320,46 @@
         <v>143</v>
       </c>
       <c r="D10" s="7">
-        <v>155144</v>
+        <v>154098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
       </c>
       <c r="I10" s="7">
-        <v>157997</v>
+        <v>146015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>345</v>
       </c>
       <c r="N10" s="7">
-        <v>313140</v>
+        <v>300113</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,46 +3371,46 @@
         <v>418</v>
       </c>
       <c r="D11" s="7">
-        <v>440309</v>
+        <v>433380</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>648</v>
       </c>
       <c r="I11" s="7">
-        <v>467556</v>
+        <v>433152</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>1066</v>
       </c>
       <c r="N11" s="7">
-        <v>907864</v>
+        <v>866532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,46 +3422,46 @@
         <v>502</v>
       </c>
       <c r="D12" s="7">
-        <v>485268</v>
+        <v>469427</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H12" s="7">
         <v>748</v>
       </c>
       <c r="I12" s="7">
-        <v>626361</v>
+        <v>702946</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>1250</v>
       </c>
       <c r="N12" s="7">
-        <v>1111629</v>
+        <v>1172373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,46 +3473,46 @@
         <v>277</v>
       </c>
       <c r="D13" s="7">
-        <v>248692</v>
+        <v>239079</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>398</v>
       </c>
       <c r="I13" s="7">
-        <v>252376</v>
+        <v>233089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>675</v>
       </c>
       <c r="N13" s="7">
-        <v>501068</v>
+        <v>472168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,46 +3524,46 @@
         <v>299</v>
       </c>
       <c r="D14" s="7">
-        <v>270955</v>
+        <v>265626</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>552</v>
       </c>
       <c r="I14" s="7">
-        <v>359119</v>
+        <v>336471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>851</v>
       </c>
       <c r="N14" s="7">
-        <v>630074</v>
+        <v>602097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,7 +3575,7 @@
         <v>1639</v>
       </c>
       <c r="D15" s="7">
-        <v>1600367</v>
+        <v>1561611</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -3596,7 +3590,7 @@
         <v>2548</v>
       </c>
       <c r="I15" s="7">
-        <v>1863408</v>
+        <v>1851673</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -3611,7 +3605,7 @@
         <v>4187</v>
       </c>
       <c r="N15" s="7">
-        <v>3463775</v>
+        <v>3413284</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -3634,46 +3628,46 @@
         <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>34349</v>
+        <v>33775</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
       </c>
       <c r="I16" s="7">
-        <v>42635</v>
+        <v>38831</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
       </c>
       <c r="N16" s="7">
-        <v>76984</v>
+        <v>72607</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,46 +3679,46 @@
         <v>145</v>
       </c>
       <c r="D17" s="7">
-        <v>148647</v>
+        <v>142637</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
       </c>
       <c r="I17" s="7">
-        <v>148945</v>
+        <v>138212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>355</v>
       </c>
       <c r="N17" s="7">
-        <v>297592</v>
+        <v>280849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,46 +3730,46 @@
         <v>187</v>
       </c>
       <c r="D18" s="7">
-        <v>180442</v>
+        <v>171733</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>291</v>
       </c>
       <c r="I18" s="7">
-        <v>191514</v>
+        <v>178451</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>371956</v>
+        <v>350184</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3781,13 @@
         <v>100</v>
       </c>
       <c r="D19" s="7">
-        <v>89856</v>
+        <v>84870</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>304</v>
@@ -3802,7 +3796,7 @@
         <v>159</v>
       </c>
       <c r="I19" s="7">
-        <v>103335</v>
+        <v>94723</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>305</v>
@@ -3817,7 +3811,7 @@
         <v>259</v>
       </c>
       <c r="N19" s="7">
-        <v>193191</v>
+        <v>179594</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>308</v>
@@ -3838,7 +3832,7 @@
         <v>119</v>
       </c>
       <c r="D20" s="7">
-        <v>99928</v>
+        <v>97883</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>311</v>
@@ -3853,13 +3847,13 @@
         <v>203</v>
       </c>
       <c r="I20" s="7">
-        <v>140062</v>
+        <v>132250</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>315</v>
@@ -3868,7 +3862,7 @@
         <v>322</v>
       </c>
       <c r="N20" s="7">
-        <v>239989</v>
+        <v>230133</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>316</v>
@@ -3889,7 +3883,7 @@
         <v>585</v>
       </c>
       <c r="D21" s="7">
-        <v>553222</v>
+        <v>530898</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -3904,7 +3898,7 @@
         <v>914</v>
       </c>
       <c r="I21" s="7">
-        <v>626491</v>
+        <v>582467</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -3919,7 +3913,7 @@
         <v>1499</v>
       </c>
       <c r="N21" s="7">
-        <v>1179712</v>
+        <v>1113365</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -3942,7 +3936,7 @@
         <v>214</v>
       </c>
       <c r="D22" s="7">
-        <v>222500</v>
+        <v>219452</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>319</v>
@@ -3957,7 +3951,7 @@
         <v>304</v>
       </c>
       <c r="I22" s="7">
-        <v>232976</v>
+        <v>214681</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>322</v>
@@ -3972,16 +3966,16 @@
         <v>518</v>
       </c>
       <c r="N22" s="7">
-        <v>455475</v>
+        <v>434133</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,7 +3987,7 @@
         <v>677</v>
       </c>
       <c r="D23" s="7">
-        <v>684349</v>
+        <v>666772</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>327</v>
@@ -4008,7 +4002,7 @@
         <v>1090</v>
       </c>
       <c r="I23" s="7">
-        <v>757524</v>
+        <v>699768</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>330</v>
@@ -4023,16 +4017,16 @@
         <v>1767</v>
       </c>
       <c r="N23" s="7">
-        <v>1441873</v>
+        <v>1366539</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4038,13 @@
         <v>842</v>
       </c>
       <c r="D24" s="7">
-        <v>782440</v>
+        <v>751800</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>337</v>
@@ -4059,7 +4053,7 @@
         <v>1425</v>
       </c>
       <c r="I24" s="7">
-        <v>1039901</v>
+        <v>1081507</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>338</v>
@@ -4074,7 +4068,7 @@
         <v>2267</v>
       </c>
       <c r="N24" s="7">
-        <v>1822341</v>
+        <v>1833308</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>341</v>
@@ -4095,7 +4089,7 @@
         <v>519</v>
       </c>
       <c r="D25" s="7">
-        <v>445869</v>
+        <v>425088</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>344</v>
@@ -4104,37 +4098,37 @@
         <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>844</v>
       </c>
       <c r="I25" s="7">
-        <v>513911</v>
+        <v>469614</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>1363</v>
       </c>
       <c r="N25" s="7">
-        <v>959780</v>
+        <v>894702</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,46 +4140,46 @@
         <v>589</v>
       </c>
       <c r="D26" s="7">
-        <v>494229</v>
+        <v>483261</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>1130</v>
       </c>
       <c r="I26" s="7">
-        <v>708187</v>
+        <v>660978</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>1719</v>
       </c>
       <c r="N26" s="7">
-        <v>1202416</v>
+        <v>1144239</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,7 +4191,7 @@
         <v>2841</v>
       </c>
       <c r="D27" s="7">
-        <v>2629386</v>
+        <v>2546373</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -4212,7 +4206,7 @@
         <v>4793</v>
       </c>
       <c r="I27" s="7">
-        <v>3252499</v>
+        <v>3126549</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -4227,7 +4221,7 @@
         <v>7634</v>
       </c>
       <c r="N27" s="7">
-        <v>5881885</v>
+        <v>5672921</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
